--- a/teacher_timetables/Gwyneth WENTINK_CampA_timetable.xlsx
+++ b/teacher_timetables/Gwyneth WENTINK_CampA_timetable.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/teacher_timetables/Gwyneth WENTINK_CampA_timetable.xlsx
+++ b/teacher_timetables/Gwyneth WENTINK_CampA_timetable.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -512,8 +512,8 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>Harp Regulation Class
-(Room Acting Room)</t>
+          <t>Harp Regulation Workshop
+(Room241)</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
@@ -593,7 +593,7 @@
       <c r="F7" s="1" t="inlineStr">
         <is>
           <t>Harp MasterClass by Liya HUANG
-Sonia SUNG, Ho Yee HO, Caitlyn YIP</t>
+Sonia SUNG, Ho Yee HO. Caitlyn YIP</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">

--- a/teacher_timetables/Gwyneth WENTINK_CampA_timetable.xlsx
+++ b/teacher_timetables/Gwyneth WENTINK_CampA_timetable.xlsx
@@ -513,7 +513,7 @@
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>Harp Regulation Workshop
-(Room241)</t>
+(Room 241)</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
@@ -593,7 +593,7 @@
       <c r="F7" s="1" t="inlineStr">
         <is>
           <t>Harp MasterClass by Liya HUANG
-Sonia SUNG, Ho Yee HO. Caitlyn YIP</t>
+Sonia SUNG, Ho Yee HO, Caitlyn YIP</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
